--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/CodeSystem/output-task-ror-codesystem</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/output-task-ror-codesystem</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -382,54 +385,56 @@
       <c r="A14" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -447,44 +452,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
+++ b/ig/main/CodeSystem-output-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
